--- a/Supplementary_Tables/Table S4.xlsx
+++ b/Supplementary_Tables/Table S4.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes Submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes_FinalSubmission/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F64589A8-A518-3243-B82A-B23C6BB9DE1A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14320" yWindow="5740" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="20520" yWindow="5180" windowWidth="28160" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -41,9 +42,6 @@
     <t>ERCC_Spike-In</t>
   </si>
   <si>
-    <t>Total_Reads</t>
-  </si>
-  <si>
     <t>Total_Mapped</t>
   </si>
   <si>
@@ -246,12 +244,15 @@
   </si>
   <si>
     <t>SeqFormat</t>
+  </si>
+  <si>
+    <t>Sequencing Depth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -325,6 +326,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -592,22 +596,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
@@ -625,45 +629,45 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G3" s="1">
         <v>128825302</v>
@@ -678,22 +682,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G4" s="1">
         <v>116604732</v>
@@ -708,22 +712,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1">
         <v>126712028</v>
@@ -738,22 +742,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1">
         <v>105234258</v>
@@ -768,22 +772,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G7" s="1">
         <v>108124646</v>
@@ -798,22 +802,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G8" s="1">
         <v>121218218</v>
@@ -828,22 +832,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1">
         <v>122274050</v>
@@ -858,22 +862,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G10" s="1">
         <v>138528846</v>
@@ -888,22 +892,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G11" s="1">
         <v>110805246</v>
@@ -918,22 +922,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1">
         <v>123176964</v>
@@ -948,22 +952,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1">
         <v>70463988</v>
@@ -978,22 +982,22 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1">
         <v>74337180</v>
@@ -1008,22 +1012,22 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1">
         <v>74454480</v>
@@ -1038,22 +1042,22 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1">
         <v>69735600</v>
@@ -1068,22 +1072,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1">
         <v>39719840</v>
@@ -1098,22 +1102,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1">
         <v>70801752</v>
@@ -1128,22 +1132,22 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1">
         <v>69130504</v>
@@ -1158,22 +1162,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1">
         <v>68137884</v>
@@ -1188,22 +1192,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1">
         <v>74154552</v>
